--- a/SMO/TemplateExcel/Template_KeHoachVanChuyen.xlsx
+++ b/SMO/TemplateExcel/Template_KeHoachVanChuyen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2Sprojsct\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DEBB8D-8C6E-4DF2-A2FA-8F656CFBFA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B52A506-F0CA-4CB9-8FEB-D69E52C5C1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>KẾ HOẠCH NGÂN SÁCH DOANH THU KINH DOANH</t>
   </si>
   <si>
-    <t xml:space="preserve">Năm ngân sách: </t>
-  </si>
-  <si>
     <t>Người lập:</t>
   </si>
   <si>
-    <t>Đơn vị: Đồng</t>
-  </si>
-  <si>
     <t>Người duyệt:</t>
   </si>
   <si>
@@ -64,18 +58,6 @@
   </si>
   <si>
     <t>M3</t>
-  </si>
-  <si>
-    <t>TRONG ĐÓ</t>
-  </si>
-  <si>
-    <t>TỰ VẬN TRUNG BÌNH</t>
-  </si>
-  <si>
-    <t>TỰ VẬN CAO</t>
-  </si>
-  <si>
-    <t>TỰ VẬN THẤP</t>
   </si>
   <si>
     <t>THUÊ NGOÀI</t>
@@ -265,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -274,28 +256,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -312,12 +293,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,19 +591,16 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="21.109375" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="10" t="s">
@@ -638,130 +610,100 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="9"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H12" s="6"/>
+    <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C2:H3"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SMO/TemplateExcel/Template_KeHoachVanChuyen.xlsx
+++ b/SMO/TemplateExcel/Template_KeHoachVanChuyen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2Sprojsct\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B52A506-F0CA-4CB9-8FEB-D69E52C5C1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B085461-DE28-40D3-A363-F30858965A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>KẾ HOẠCH NGÂN SÁCH DOANH THU KINH DOANH</t>
-  </si>
-  <si>
     <t>Người lập:</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>M3.KM</t>
+  </si>
+  <si>
+    <t>KẾ HOẠCH VẬN CHUYỂN</t>
   </si>
 </sst>
 </file>
@@ -265,6 +265,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -276,24 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -579,7 +579,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,99 +603,94 @@
     <row r="2" spans="1:10" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:10" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="9"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
@@ -704,6 +699,11 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
